--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1102764.90219016</v>
+        <v>1100064.252566853</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>25.67913628361561</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>219.4450108596165</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>58.42515748293726</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>18.56117045231616</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.90919546454411</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>139.282844812928</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825859</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3893572152011</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>64.45828691911517</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>97.24126768151793</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937124</v>
+        <v>383.0198440937154</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8018133893748</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339768</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.31604239259336</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
-        <v>193.950580588878</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
-        <v>69.2160233853036</v>
+        <v>39.72016663386081</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>159.5819666322003</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714491</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983622</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485286662292</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>258.022708526708</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.1455906017396</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>182.9387099570815</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.0514897447171</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>247.5837381915872</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>270.1915102239676</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>83.72176360785724</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064771</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754683</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850358</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119295</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>185.4730582691624</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695614</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>84.8780074336928</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833826</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428145</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>33.82891891787662</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>179.03758591542</v>
+        <v>179.2499669408059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833426</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>156.3923706291108</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520984</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518786</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833814</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.3831318263024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,13 +3029,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977245</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>178.5134655978078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.6164309267681</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>162.74019138191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3952,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>247.2924896597631</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>43.55707494718609</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.8162363079211</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079211</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079211</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>300.438579740743</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356496</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4328,7 +4328,7 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1028.916998507423</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>814.4829423425513</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.79792428368</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="W2" t="n">
-        <v>833.1938928750992</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="X2" t="n">
-        <v>566.8162363079211</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.8162363079211</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>741.6028526889978</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C3" t="n">
-        <v>567.1498234078708</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>418.2154137466196</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4407,25 +4407,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>995.8402094171995</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V3" t="n">
-        <v>995.8402094171995</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W3" t="n">
-        <v>741.6028526889978</v>
+        <v>611.1619386517343</v>
       </c>
       <c r="X3" t="n">
-        <v>741.6028526889978</v>
+        <v>403.3104384462014</v>
       </c>
       <c r="Y3" t="n">
-        <v>741.6028526889978</v>
+        <v>195.5501396812475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>252.5678342013043</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>83.63165127339738</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4501,7 +4501,7 @@
         <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>785.3732496054271</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>785.3732496054271</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>518.995593038249</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V4" t="n">
-        <v>264.3111048323622</v>
+        <v>700.593955598722</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>434.216299031544</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>434.216299031544</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>434.216299031544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.5271483610032</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="C5" t="n">
-        <v>150.5271483610032</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="D5" t="n">
-        <v>150.5271483610032</v>
+        <v>749.0183768971187</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5271483610032</v>
+        <v>363.2301242988745</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117997</v>
+        <v>356.284623549671</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438618</v>
+        <v>343.7378535817331</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438618</v>
+        <v>30.64158752749724</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749724</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281282</v>
+        <v>93.51877468281396</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452953</v>
+        <v>238.4938972452977</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192506</v>
+        <v>455.2501182192547</v>
       </c>
       <c r="M5" t="n">
-        <v>728.102615949416</v>
+        <v>728.1026159494219</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730192</v>
+        <v>1009.9839607302</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145357</v>
+        <v>1262.821260145367</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739586</v>
+        <v>1444.111044739597</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.07937637485</v>
+        <v>1466.969995648483</v>
       </c>
       <c r="T5" t="n">
-        <v>1319.470925091082</v>
+        <v>1466.969995648483</v>
       </c>
       <c r="U5" t="n">
-        <v>1319.470925091082</v>
+        <v>1466.969995648483</v>
       </c>
       <c r="V5" t="n">
-        <v>988.4080377475117</v>
+        <v>1135.907108304912</v>
       </c>
       <c r="W5" t="n">
-        <v>635.6393824773975</v>
+        <v>1135.907108304912</v>
       </c>
       <c r="X5" t="n">
-        <v>537.4158797687935</v>
+        <v>1135.907108304912</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.5271483610032</v>
+        <v>749.0183768971187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>622.5215590454752</v>
+        <v>489.0410202739068</v>
       </c>
       <c r="C6" t="n">
-        <v>622.5215590454752</v>
+        <v>314.5879909927799</v>
       </c>
       <c r="D6" t="n">
-        <v>473.5871493842239</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="E6" t="n">
-        <v>314.3496943787684</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8151364056534</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="G6" t="n">
-        <v>30.64158752749699</v>
+        <v>165.6535813315286</v>
       </c>
       <c r="H6" t="n">
-        <v>30.64158752749699</v>
+        <v>67.3244586311269</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749724</v>
       </c>
       <c r="J6" t="n">
-        <v>174.1030874753603</v>
+        <v>49.2729624883563</v>
       </c>
       <c r="K6" t="n">
-        <v>284.1018995701344</v>
+        <v>202.9042018085649</v>
       </c>
       <c r="L6" t="n">
-        <v>478.3314182832589</v>
+        <v>582.0938474613432</v>
       </c>
       <c r="M6" t="n">
-        <v>724.3449735791942</v>
+        <v>828.1074027572799</v>
       </c>
       <c r="N6" t="n">
-        <v>991.2784205633797</v>
+        <v>1095.040849741467</v>
       </c>
       <c r="O6" t="n">
-        <v>1213.250579673379</v>
+        <v>1317.013008851467</v>
       </c>
       <c r="P6" t="n">
-        <v>1372.069740527104</v>
+        <v>1475.832169705194</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="S6" t="n">
-        <v>1532.07937637485</v>
+        <v>1387.587760525667</v>
       </c>
       <c r="T6" t="n">
-        <v>1336.169699012347</v>
+        <v>1387.587760525667</v>
       </c>
       <c r="U6" t="n">
-        <v>1108.048533152632</v>
+        <v>1159.466594665952</v>
       </c>
       <c r="V6" t="n">
-        <v>1038.133358015962</v>
+        <v>1119.345214227709</v>
       </c>
       <c r="W6" t="n">
-        <v>1038.133358015962</v>
+        <v>865.1078574995076</v>
       </c>
       <c r="X6" t="n">
-        <v>830.2818578104291</v>
+        <v>657.2563572939748</v>
       </c>
       <c r="Y6" t="n">
-        <v>622.5215590454752</v>
+        <v>657.2563572939748</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.9063158466158</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="C7" t="n">
-        <v>479.9063158466158</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="D7" t="n">
-        <v>329.7896764342801</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="E7" t="n">
-        <v>329.7896764342801</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="F7" t="n">
-        <v>182.8997289363697</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="G7" t="n">
-        <v>182.8997289363697</v>
+        <v>148.400268702224</v>
       </c>
       <c r="H7" t="n">
-        <v>30.64158752749699</v>
+        <v>148.400268702224</v>
       </c>
       <c r="I7" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749724</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749724</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961746997</v>
+        <v>157.2595961747004</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914608</v>
+        <v>374.8134887914623</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437672</v>
+        <v>614.5826883437694</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630845</v>
+        <v>854.0853286630875</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.28848610913</v>
+        <v>1059.288486109133</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016227</v>
+        <v>1211.354555016231</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.20213876712</v>
+        <v>1233.202138767125</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.20213876712</v>
+        <v>1112.821005058591</v>
       </c>
       <c r="S7" t="n">
-        <v>1029.675242304128</v>
+        <v>1112.821005058591</v>
       </c>
       <c r="T7" t="n">
-        <v>1029.675242304128</v>
+        <v>888.1512723739619</v>
       </c>
       <c r="U7" t="n">
-        <v>740.5353143584421</v>
+        <v>599.0113444282758</v>
       </c>
       <c r="V7" t="n">
-        <v>740.5353143584421</v>
+        <v>599.0113444282758</v>
       </c>
       <c r="W7" t="n">
-        <v>479.9063158466158</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="X7" t="n">
-        <v>479.9063158466158</v>
+        <v>309.5941743913152</v>
       </c>
       <c r="Y7" t="n">
-        <v>479.9063158466158</v>
+        <v>309.5941743913152</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.346298904865</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
         <v>1588.383781964454</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.695380320764</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.695380320764</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4863,25 +4863,25 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4890,19 +4890,19 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.0887888085541</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>518.0887888085541</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>861.2818647012352</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>633.2923138032179</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>518.0887888085541</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1535.258832689349</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1285.174248657444</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="D11" t="n">
-        <v>926.9085500506931</v>
+        <v>1176.9931340826</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>1176.9931340826</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>766.0072292929922</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>351.4317836226389</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I11" t="n">
         <v>78.5110662246918</v>
@@ -5042,25 +5042,25 @@
         <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420305</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
         <v>3535.048359856281</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882239</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
         <v>3925.55331123459</v>
@@ -5075,16 +5075,16 @@
         <v>3369.295305604048</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260477</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990363</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729283</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753471</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>196.8120623792128</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0998698065223</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.413644050411</v>
+        <v>977.3905023848071</v>
       </c>
       <c r="N12" t="n">
-        <v>1674.721951401478</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2147.693504267227</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.961807107381</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>857.191935165803</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>688.2557522378961</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>538.1391128255605</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>390.2260192431672</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431672</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
         <v>78.5110662246918</v>
@@ -5212,37 +5212,37 @@
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
         <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014272</v>
       </c>
       <c r="S13" t="n">
         <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1803.73463738242</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1803.73463738242</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.050149176534</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1259.632979139573</v>
+        <v>834.2956531176421</v>
       </c>
       <c r="X13" t="n">
-        <v>1259.632979139573</v>
+        <v>606.3061022196248</v>
       </c>
       <c r="Y13" t="n">
-        <v>1038.840399996043</v>
+        <v>408.0726246373246</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708296</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,7 +5276,7 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
         <v>841.9378825128761</v>
@@ -5285,7 +5285,7 @@
         <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874795</v>
@@ -5297,7 +5297,7 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060315</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>93.85065580060315</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5829886443545</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.601342896482</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.697306295819</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.573781296013</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2345.573781296013</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
         <v>2517.44942553633</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.8182155057104</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933746</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
         <v>92.81162322608056</v>
@@ -5434,16 +5434,16 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
         <v>1653.109749005499</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2021.350468620345</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1766.665980414458</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.248810377498</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1249.25925947948</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1028.46668033595</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5507,37 +5507,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246299</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967231</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D19" t="n">
-        <v>551.2636521843873</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>403.3505586019942</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380906</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101837</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978478</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>274.8772357154547</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>127.9872882175443</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,19 +5926,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.28419561186</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683303</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835331</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,19 +6148,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,19 +6251,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400672</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998247</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2221.945288288106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1713.268596655245</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y28" t="n">
-        <v>720.3848083708508</v>
+        <v>695.502065570307</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.82229605222</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2083.791617318187</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>228.9331431646413</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.38435762632</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.4481746984129</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860772</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>382.418441703684</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>849.38435762632</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075819</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314346</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612593</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536378</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>705.932442825731</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133952</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330917</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583877</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7640,22 +7640,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7670,25 +7670,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179091</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900022</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>593.6115863900022</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614392</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179091</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752857</v>
+        <v>34.58458098752789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.07315881356934</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>186.828411050154</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.8105345233112</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>21.89339468985681</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>117.6891535794204</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>19.37720645670964</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.6077720323803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
         <v>89.7150774703404</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>134.8841532675974</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561768</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728928</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613728827</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597398</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>100.712393279258</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>60.54304058923844</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393091</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>131.6952193743922</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>46.67206947361717</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393459</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24.63391537253375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823103</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431588</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>38.89198472948046</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.96822242532664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>123.782806954681</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.89198472948102</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>102.8768876993831</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877019.8763537079</v>
+        <v>877019.8763537081</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>959376.2460059789</v>
+        <v>959376.2460059788</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059788</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959376.246005979</v>
+        <v>959376.2460059789</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719635</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
@@ -26320,25 +26320,25 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876632</v>
+        <v>423807.2415876635</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
@@ -26350,10 +26350,10 @@
         <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217534</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103506</v>
+        <v>132064.9098103539</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196388</v>
+        <v>266112.9182196358</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357063</v>
+        <v>325187.1190357062</v>
       </c>
       <c r="F3" t="n">
         <v>166521.3471051385</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557898</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648292</v>
+        <v>30705.53736648371</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950919</v>
+        <v>65187.3803795084</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456809</v>
+        <v>84929.59434456818</v>
       </c>
       <c r="N3" t="n">
         <v>43782.40655848928</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631774</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216676.227492557</v>
+        <v>216676.227492556</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26442,10 +26442,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26454,10 +26454,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589705</v>
+        <v>72540.50950589729</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523158.8313866737</v>
+        <v>-523158.8313866733</v>
       </c>
       <c r="C6" t="n">
-        <v>50817.37086315821</v>
+        <v>50817.37086315558</v>
       </c>
       <c r="D6" t="n">
-        <v>-28494.49354010058</v>
+        <v>-28494.49354009758</v>
       </c>
       <c r="E6" t="n">
-        <v>848.5451303101145</v>
+        <v>638.5808864656831</v>
       </c>
       <c r="F6" t="n">
-        <v>183106.9494773105</v>
+        <v>183061.0444817448</v>
       </c>
       <c r="G6" t="n">
-        <v>340042.5525454617</v>
+        <v>340007.8146200263</v>
       </c>
       <c r="H6" t="n">
-        <v>351209.7887810407</v>
+        <v>351175.050855605</v>
       </c>
       <c r="I6" t="n">
-        <v>351209.7887810406</v>
+        <v>351175.0508556049</v>
       </c>
       <c r="J6" t="n">
-        <v>282210.6343619265</v>
+        <v>282175.8964364909</v>
       </c>
       <c r="K6" t="n">
-        <v>320504.2514145579</v>
+        <v>320469.5134891212</v>
       </c>
       <c r="L6" t="n">
-        <v>286022.4084015315</v>
+        <v>285987.6704760965</v>
       </c>
       <c r="M6" t="n">
-        <v>266280.1944364727</v>
+        <v>266245.4565110369</v>
       </c>
       <c r="N6" t="n">
-        <v>307427.3822225514</v>
+        <v>307392.6442971157</v>
       </c>
       <c r="O6" t="n">
-        <v>348186.4908038161</v>
+        <v>348151.7528783803</v>
       </c>
       <c r="P6" t="n">
-        <v>351209.7887810405</v>
+        <v>351175.050855605</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605199</v>
+        <v>716.7570176605225</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937124</v>
+        <v>383.0198440937154</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>981.3883278086475</v>
@@ -26802,10 +26802,10 @@
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26960,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910415</v>
+        <v>102.7020038910441</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570192</v>
+        <v>217.3078744570167</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770166</v>
+        <v>278.1053753770165</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922062</v>
+        <v>119.3059640922093</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063263</v>
+        <v>257.5649880063234</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="F4" t="n">
         <v>178.7569625173594</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922062</v>
+        <v>119.3059640922093</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063265</v>
+        <v>257.5649880063234</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086086</v>
+        <v>340.8034957086089</v>
       </c>
       <c r="N4" t="n">
         <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922062</v>
+        <v>119.3059640922093</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063263</v>
+        <v>257.5649880063234</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.8034957086087</v>
       </c>
       <c r="N4" t="n">
         <v>178.7569625173594</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>127.0885569156067</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>129.7959578577965</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,19 +27461,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27509,22 +27509,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>167.4293300206174</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>233.1338127086034</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>86.70627755366824</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>65.43631943066572</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936936</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.38935721520069</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980479</v>
+        <v>78.90107697893255</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
         <v>251.1151380880864</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>272.4898329969511</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.21809456234115</v>
+        <v>3.218094562338138</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339774</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259355</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677825</v>
+        <v>4.436963001677469</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>163.5845637641217</v>
+        <v>193.0804205155645</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>7.116500071460763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629796</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478316</v>
+        <v>1.978535422477975</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714493</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>28.50028980988304</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>362.588251061741</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1481050682514</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,10 +28059,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>11.72375040465593</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.5331636073777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.480371794737039e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2.149323311921118e-12</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-3.629736511356896e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29749,13 +29749,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876459</v>
+        <v>2.88143524687647</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207355</v>
+        <v>29.50949872207366</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552048</v>
+        <v>111.0865323552052</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845811</v>
+        <v>244.558214784582</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848617</v>
+        <v>366.5293687848631</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214573</v>
+        <v>454.7120927214589</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930965</v>
+        <v>505.9548167930984</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882842</v>
+        <v>514.1416946882862</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521565</v>
+        <v>485.4894229521582</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948938</v>
+        <v>414.3539902948953</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161305</v>
+        <v>311.1625905161316</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266036</v>
+        <v>181.0009568266042</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819738</v>
+        <v>65.66070568819762</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320171</v>
+        <v>12.61348279320175</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501167</v>
+        <v>0.2305148197501176</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835835</v>
+        <v>1.541703773835841</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309873</v>
+        <v>14.88961276309878</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882153</v>
+        <v>53.08059045882172</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342006</v>
+        <v>145.6571973342011</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812015</v>
+        <v>248.9513501812024</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234343</v>
+        <v>334.7458128234356</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249832</v>
+        <v>390.6325746249847</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118035</v>
+        <v>400.9714565118049</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757568</v>
+        <v>366.8105465757581</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160728</v>
+        <v>294.3978022160739</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.797134358413</v>
+        <v>196.7971343584137</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096531</v>
+        <v>95.72087115096566</v>
       </c>
       <c r="S6" t="n">
-        <v>28.6364714131349</v>
+        <v>28.63647141313501</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943561</v>
+        <v>6.214148105943584</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576208</v>
+        <v>0.1014278798576212</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797659</v>
+        <v>1.292512654797663</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265556</v>
+        <v>11.4916125126556</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427869</v>
+        <v>38.86938056427883</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419446</v>
+        <v>91.3806446941948</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574007</v>
+        <v>150.1664702574012</v>
       </c>
       <c r="L7" t="n">
-        <v>192.161381423281</v>
+        <v>192.1613814232817</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970548</v>
+        <v>202.6072336970555</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291727</v>
+        <v>197.7896865291735</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981273</v>
+        <v>182.690788698128</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402549</v>
+        <v>156.3235305402555</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667385</v>
+        <v>108.2303096667389</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572016</v>
+        <v>58.11606900572038</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5249705386101</v>
+        <v>22.52497053861018</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499085</v>
+        <v>5.522554070499106</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169055</v>
+        <v>0.07050069026169081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
         <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>219.8517740430763</v>
       </c>
       <c r="N12" t="n">
         <v>678.1177801147138</v>
@@ -31859,7 +31859,7 @@
         <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.2216544116247</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
         <v>161.8819085533296</v>
@@ -32075,28 +32075,28 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>313.5935359449275</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>181.3625385436714</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>705.9257335045844</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>373.3554713800157</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>430.136771173632</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>679.7882761221643</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789485</v>
+        <v>63.51231025789573</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398812</v>
+        <v>146.4395177398825</v>
       </c>
       <c r="L5" t="n">
-        <v>218.94567775147</v>
+        <v>218.9456777514717</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658238</v>
+        <v>275.6085835658256</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916933</v>
+        <v>284.7286310916953</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304697</v>
+        <v>255.3912115304715</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396242</v>
+        <v>183.1209945396258</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168099</v>
+        <v>88.85690064168213</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>144.9106060079427</v>
+        <v>18.81957066753441</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068425</v>
+        <v>155.1830700204128</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435602</v>
+        <v>383.0198440937154</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029649</v>
+        <v>248.4985407029664</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284702</v>
+        <v>269.6297444284717</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313124</v>
+        <v>224.2143021313137</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017426</v>
+        <v>160.4233948017437</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.6258947957026</v>
+        <v>56.81536027239216</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315178</v>
+        <v>127.8969784315184</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835972</v>
+        <v>219.7514066835979</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588954</v>
+        <v>242.1911106588961</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084013</v>
+        <v>241.9218589084021</v>
       </c>
       <c r="O7" t="n">
-        <v>207.275916612167</v>
+        <v>207.2759166121677</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051484</v>
+        <v>153.602089805149</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504411</v>
+        <v>22.0682664150445</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
         <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>77.71774012105801</v>
       </c>
       <c r="N12" t="n">
         <v>546.7760680313805</v>
@@ -35507,7 +35507,7 @@
         <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.23988032560315</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
         <v>16.20240458936564</v>
@@ -35723,28 +35723,28 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.6117618589059</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>35.68303457970742</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>574.5840214212511</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0040068187898</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558158</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0137592966824</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>291.5823913937579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>548.4465640388311</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
